--- a/excel/vacancy_params.xlsx
+++ b/excel/vacancy_params.xlsx
@@ -6566,11 +6566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I1982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1833" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H1981"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6607,7 +6606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7173,7 +7172,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7331,7 +7330,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7450,7 +7449,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7742,7 +7741,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8314,7 +8313,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8405,7 +8404,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8459,7 +8458,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9179,7 +9178,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9710,7 +9709,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11007,7 +11006,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11687,7 +11686,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11985,7 +11984,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -12050,7 +12049,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -12149,7 +12148,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -13142,7 +13141,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -14235,7 +14234,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -14916,7 +14915,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14933,7 +14932,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -15081,7 +15080,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -15172,7 +15171,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -15380,7 +15379,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -15753,7 +15752,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -16141,7 +16140,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -16621,7 +16620,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -16635,7 +16634,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -16691,7 +16690,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -16722,7 +16721,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -16736,7 +16735,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -16795,7 +16794,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -16809,7 +16808,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -16823,7 +16822,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -17099,7 +17098,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -19287,7 +19286,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -20506,7 +20505,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -21055,7 +21054,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -23242,7 +23241,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -23256,7 +23255,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -23267,7 +23266,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -23281,7 +23280,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -23301,7 +23300,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -23341,7 +23340,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="929" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -23358,7 +23357,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="930" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -23378,7 +23377,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="931" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -23398,7 +23397,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="932" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -23418,7 +23417,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="933" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -23438,7 +23437,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="934" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -23458,7 +23457,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="935" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -23478,7 +23477,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="936" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -23498,7 +23497,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="937" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -23518,7 +23517,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="938" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -23543,7 +23542,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="940" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -23554,7 +23553,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="941" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -23568,7 +23567,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="942" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -23579,7 +23578,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -23593,7 +23592,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -23607,7 +23606,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="945" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -23615,7 +23614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="946" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -23629,7 +23628,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="947" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="948" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -23657,7 +23656,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="949" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -23725,7 +23724,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -23742,7 +23741,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="954" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -23776,7 +23775,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="956" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -23790,7 +23789,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="957" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A957" s="1">
         <v>955</v>
       </c>
@@ -23858,7 +23857,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="961" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A961" s="1">
         <v>959</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="971" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A971" s="1">
         <v>969</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="974" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -24142,7 +24141,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -24173,7 +24172,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="979" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A979" s="1">
         <v>977</v>
       </c>
@@ -24244,7 +24243,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="983" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A983" s="1">
         <v>981</v>
       </c>
@@ -24258,7 +24257,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="984" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A984" s="1">
         <v>982</v>
       </c>
@@ -24902,7 +24901,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1018" s="1">
         <v>1016</v>
       </c>
@@ -24990,7 +24989,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1023" s="1">
         <v>1021</v>
       </c>
@@ -25323,7 +25322,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1041" s="1">
         <v>1039</v>
       </c>
@@ -25391,7 +25390,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="1045" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1045" s="1">
         <v>1043</v>
       </c>
@@ -25442,7 +25441,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1048" s="1">
         <v>1046</v>
       </c>
@@ -25459,7 +25458,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1049" s="1">
         <v>1047</v>
       </c>
@@ -25493,7 +25492,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1051" s="1">
         <v>1049</v>
       </c>
@@ -25524,7 +25523,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1053" s="1">
         <v>1051</v>
       </c>
@@ -25780,7 +25779,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1067" s="1">
         <v>1065</v>
       </c>
@@ -25794,7 +25793,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1068" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1068" s="1">
         <v>1066</v>
       </c>
@@ -25808,7 +25807,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1069" s="1">
         <v>1067</v>
       </c>
@@ -25848,7 +25847,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1071" s="1">
         <v>1069</v>
       </c>
@@ -25916,7 +25915,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="1075" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1075" s="1">
         <v>1073</v>
       </c>
@@ -25930,7 +25929,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="1076" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1076" s="1">
         <v>1074</v>
       </c>
@@ -25944,7 +25943,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1077" s="1">
         <v>1075</v>
       </c>
@@ -25975,7 +25974,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1079" s="1">
         <v>1077</v>
       </c>
@@ -26046,7 +26045,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1083" s="1">
         <v>1081</v>
       </c>
@@ -26080,7 +26079,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1085" s="1">
         <v>1083</v>
       </c>
@@ -26222,7 +26221,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1093" s="1">
         <v>1091</v>
       </c>
@@ -26253,7 +26252,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1095" s="1">
         <v>1093</v>
       </c>
@@ -26284,7 +26283,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1097" s="1">
         <v>1095</v>
       </c>
@@ -26298,7 +26297,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1098" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1098" s="1">
         <v>1096</v>
       </c>
@@ -26332,7 +26331,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1100" s="1">
         <v>1098</v>
       </c>
@@ -26346,7 +26345,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1101" s="1">
         <v>1099</v>
       </c>
@@ -26363,7 +26362,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1102" s="1">
         <v>1100</v>
       </c>
@@ -26380,7 +26379,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1103" s="1">
         <v>1101</v>
       </c>
@@ -26397,7 +26396,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1104" s="1">
         <v>1102</v>
       </c>
@@ -26414,7 +26413,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1105" s="1">
         <v>1103</v>
       </c>
@@ -26559,7 +26558,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1113" s="1">
         <v>1111</v>
       </c>
@@ -26573,7 +26572,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1114" s="1">
         <v>1112</v>
       </c>
@@ -26718,7 +26717,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="1122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1122" s="1">
         <v>1120</v>
       </c>
@@ -26772,7 +26771,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="1125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1125" s="1">
         <v>1123</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1130" s="1">
         <v>1128</v>
       </c>
@@ -26894,7 +26893,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1132" s="1">
         <v>1130</v>
       </c>
@@ -27011,7 +27010,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1138" s="1">
         <v>1136</v>
       </c>
@@ -27045,7 +27044,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="1140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1140" s="1">
         <v>1138</v>
       </c>
@@ -27330,7 +27329,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="1155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1155" s="1">
         <v>1153</v>
       </c>
@@ -27475,7 +27474,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="1163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1163" s="1">
         <v>1161</v>
       </c>
@@ -27526,7 +27525,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="1166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1166" s="1">
         <v>1164</v>
       </c>
@@ -27537,7 +27536,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="1167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1167" s="1">
         <v>1165</v>
       </c>
@@ -27551,7 +27550,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1168" s="1">
         <v>1166</v>
       </c>
@@ -27585,7 +27584,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="1170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1170" s="1">
         <v>1168</v>
       </c>
@@ -27622,7 +27621,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1172" s="1">
         <v>1170</v>
       </c>
@@ -27630,7 +27629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1173" s="1">
         <v>1171</v>
       </c>
@@ -27641,7 +27640,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1174" s="1">
         <v>1172</v>
       </c>
@@ -27652,7 +27651,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1175" s="1">
         <v>1173</v>
       </c>
@@ -27660,7 +27659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1176" s="1">
         <v>1174</v>
       </c>
@@ -27671,7 +27670,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1177" s="1">
         <v>1175</v>
       </c>
@@ -27702,7 +27701,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1179" s="1">
         <v>1177</v>
       </c>
@@ -27716,7 +27715,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="1180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1180" s="1">
         <v>1178</v>
       </c>
@@ -27733,7 +27732,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1181" s="1">
         <v>1179</v>
       </c>
@@ -27750,7 +27749,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1182" s="1">
         <v>1180</v>
       </c>
@@ -27764,7 +27763,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1183" s="1">
         <v>1181</v>
       </c>
@@ -27778,7 +27777,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1184" s="1">
         <v>1182</v>
       </c>
@@ -27792,7 +27791,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1185" s="1">
         <v>1183</v>
       </c>
@@ -27806,7 +27805,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1186" s="1">
         <v>1184</v>
       </c>
@@ -27843,7 +27842,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="1188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1188" s="1">
         <v>1186</v>
       </c>
@@ -27860,7 +27859,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1189" s="1">
         <v>1187</v>
       </c>
@@ -27877,7 +27876,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1190" s="1">
         <v>1188</v>
       </c>
@@ -28005,7 +28004,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="1197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1197" s="1">
         <v>1195</v>
       </c>
@@ -28019,7 +28018,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1198" s="1">
         <v>1196</v>
       </c>
@@ -28036,7 +28035,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1199" s="1">
         <v>1197</v>
       </c>
@@ -28053,7 +28052,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1200" s="1">
         <v>1198</v>
       </c>
@@ -28087,7 +28086,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1202" s="1">
         <v>1200</v>
       </c>
@@ -28118,7 +28117,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1204" s="1">
         <v>1202</v>
       </c>
@@ -28135,7 +28134,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1205" s="1">
         <v>1203</v>
       </c>
@@ -28149,7 +28148,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1206" s="1">
         <v>1204</v>
       </c>
@@ -28166,7 +28165,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1207" s="1">
         <v>1205</v>
       </c>
@@ -28200,7 +28199,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1209" s="1">
         <v>1207</v>
       </c>
@@ -28217,7 +28216,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1210" s="1">
         <v>1208</v>
       </c>
@@ -28234,7 +28233,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1211" s="1">
         <v>1209</v>
       </c>
@@ -28248,7 +28247,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1212" s="1">
         <v>1210</v>
       </c>
@@ -28265,7 +28264,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1213" s="1">
         <v>1211</v>
       </c>
@@ -28282,7 +28281,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1214" s="1">
         <v>1212</v>
       </c>
@@ -28296,7 +28295,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1215" s="1">
         <v>1213</v>
       </c>
@@ -28310,7 +28309,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1216" s="1">
         <v>1214</v>
       </c>
@@ -28324,7 +28323,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" s="1">
         <v>1215</v>
       </c>
@@ -28338,7 +28337,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" s="1">
         <v>1216</v>
       </c>
@@ -28352,7 +28351,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" s="1">
         <v>1217</v>
       </c>
@@ -28369,7 +28368,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" s="1">
         <v>1218</v>
       </c>
@@ -28383,7 +28382,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" s="1">
         <v>1219</v>
       </c>
@@ -28397,7 +28396,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" s="1">
         <v>1220</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" s="1">
         <v>1221</v>
       </c>
@@ -28428,7 +28427,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" s="1">
         <v>1222</v>
       </c>
@@ -28445,7 +28444,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" s="1">
         <v>1223</v>
       </c>
@@ -28462,7 +28461,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" s="1">
         <v>1224</v>
       </c>
@@ -28479,7 +28478,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" s="1">
         <v>1225</v>
       </c>
@@ -28496,7 +28495,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1228" s="1">
         <v>1226</v>
       </c>
@@ -28510,7 +28509,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1229" s="1">
         <v>1227</v>
       </c>
@@ -28527,7 +28526,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1230" s="1">
         <v>1228</v>
       </c>
@@ -28544,7 +28543,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1231" s="1">
         <v>1229</v>
       </c>
@@ -28558,7 +28557,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1232" s="1">
         <v>1230</v>
       </c>
@@ -28606,7 +28605,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="1235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1235" s="1">
         <v>1233</v>
       </c>
@@ -28734,7 +28733,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="1242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1242" s="1">
         <v>1240</v>
       </c>
@@ -28748,7 +28747,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1243" s="1">
         <v>1241</v>
       </c>
@@ -28762,7 +28761,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1244" s="1">
         <v>1242</v>
       </c>
@@ -28776,7 +28775,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1245" s="1">
         <v>1243</v>
       </c>
@@ -28790,7 +28789,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1246" s="1">
         <v>1244</v>
       </c>
@@ -28807,7 +28806,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1247" s="1">
         <v>1245</v>
       </c>
@@ -28838,7 +28837,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="1249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1249" s="1">
         <v>1247</v>
       </c>
@@ -28852,7 +28851,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1250" s="1">
         <v>1248</v>
       </c>
@@ -28869,7 +28868,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1251" s="1">
         <v>1249</v>
       </c>
@@ -28883,7 +28882,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1252" s="1">
         <v>1250</v>
       </c>
@@ -28897,7 +28896,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1253" s="1">
         <v>1251</v>
       </c>
@@ -28911,7 +28910,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1254" s="1">
         <v>1252</v>
       </c>
@@ -28928,7 +28927,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1255" s="1">
         <v>1253</v>
       </c>
@@ -28945,7 +28944,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1256" s="1">
         <v>1254</v>
       </c>
@@ -29537,7 +29536,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="1288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1288" s="1">
         <v>1286</v>
       </c>
@@ -29551,7 +29550,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1289" s="1">
         <v>1287</v>
       </c>
@@ -29565,7 +29564,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1290" s="1">
         <v>1288</v>
       </c>
@@ -29579,7 +29578,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1291" s="1">
         <v>1289</v>
       </c>
@@ -29596,7 +29595,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1292" s="1">
         <v>1290</v>
       </c>
@@ -29610,7 +29609,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1293" s="1">
         <v>1291</v>
       </c>
@@ -29641,7 +29640,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="1295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1295" s="1">
         <v>1293</v>
       </c>
@@ -29655,7 +29654,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1296" s="1">
         <v>1294</v>
       </c>
@@ -29740,7 +29739,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1301" s="1">
         <v>1299</v>
       </c>
@@ -29754,7 +29753,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1302" s="1">
         <v>1300</v>
       </c>
@@ -29768,7 +29767,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="1303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1303" s="1">
         <v>1301</v>
       </c>
@@ -29782,7 +29781,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="1304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1304" s="1">
         <v>1302</v>
       </c>
@@ -29796,7 +29795,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1305" s="1">
         <v>1303</v>
       </c>
@@ -29810,7 +29809,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1306" s="1">
         <v>1304</v>
       </c>
@@ -29824,7 +29823,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1307" s="1">
         <v>1305</v>
       </c>
@@ -29912,7 +29911,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="1312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1312" s="1">
         <v>1310</v>
       </c>
@@ -30037,7 +30036,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="1319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1319" s="1">
         <v>1317</v>
       </c>
@@ -30051,7 +30050,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1320" s="1">
         <v>1318</v>
       </c>
@@ -30065,7 +30064,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1321" s="1">
         <v>1319</v>
       </c>
@@ -30096,7 +30095,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1323" s="1">
         <v>1321</v>
       </c>
@@ -30110,7 +30109,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1324" s="1">
         <v>1322</v>
       </c>
@@ -30124,7 +30123,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="1325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1325" s="1">
         <v>1323</v>
       </c>
@@ -30155,7 +30154,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1327" s="1">
         <v>1325</v>
       </c>
@@ -30169,7 +30168,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1328" s="1">
         <v>1326</v>
       </c>
@@ -30186,7 +30185,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1329" s="1">
         <v>1327</v>
       </c>
@@ -30200,7 +30199,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1330" s="1">
         <v>1328</v>
       </c>
@@ -30214,7 +30213,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1331" s="1">
         <v>1329</v>
       </c>
@@ -30228,7 +30227,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1332" s="1">
         <v>1330</v>
       </c>
@@ -30242,7 +30241,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1333" s="1">
         <v>1331</v>
       </c>
@@ -30256,7 +30255,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1334" s="1">
         <v>1332</v>
       </c>
@@ -30273,7 +30272,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1335" s="1">
         <v>1333</v>
       </c>
@@ -30330,7 +30329,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1338" s="1">
         <v>1336</v>
       </c>
@@ -30344,7 +30343,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="1339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1339" s="1">
         <v>1337</v>
       </c>
@@ -30358,7 +30357,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1340" s="1">
         <v>1338</v>
       </c>
@@ -30389,7 +30388,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="1342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1342" s="1">
         <v>1340</v>
       </c>
@@ -30420,7 +30419,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1344" s="1">
         <v>1342</v>
       </c>
@@ -30434,7 +30433,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" s="1">
         <v>1343</v>
       </c>
@@ -30451,7 +30450,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" s="1">
         <v>1344</v>
       </c>
@@ -30465,7 +30464,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1347" s="1">
         <v>1345</v>
       </c>
@@ -30479,7 +30478,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="1348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" s="1">
         <v>1346</v>
       </c>
@@ -30493,7 +30492,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="1349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" s="1">
         <v>1347</v>
       </c>
@@ -30507,7 +30506,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" s="1">
         <v>1348</v>
       </c>
@@ -30527,7 +30526,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" s="1">
         <v>1349</v>
       </c>
@@ -30538,7 +30537,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1352" s="1">
         <v>1350</v>
       </c>
@@ -30546,7 +30545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" s="1">
         <v>1351</v>
       </c>
@@ -30560,7 +30559,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" s="1">
         <v>1352</v>
       </c>
@@ -30577,7 +30576,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" s="1">
         <v>1353</v>
       </c>
@@ -30594,7 +30593,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" s="1">
         <v>1354</v>
       </c>
@@ -30608,7 +30607,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="1357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" s="1">
         <v>1355</v>
       </c>
@@ -30625,7 +30624,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" s="1">
         <v>1356</v>
       </c>
@@ -30642,7 +30641,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" s="1">
         <v>1357</v>
       </c>
@@ -30656,7 +30655,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" s="1">
         <v>1358</v>
       </c>
@@ -30670,7 +30669,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1361" s="1">
         <v>1359</v>
       </c>
@@ -30684,7 +30683,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1362" s="1">
         <v>1360</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="1363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1363" s="1">
         <v>1361</v>
       </c>
@@ -30729,7 +30728,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="1365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1365" s="1">
         <v>1363</v>
       </c>
@@ -30743,7 +30742,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1366" s="1">
         <v>1364</v>
       </c>
@@ -30760,7 +30759,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="1367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1367" s="1">
         <v>1365</v>
       </c>
@@ -30777,7 +30776,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="1368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1368" s="1">
         <v>1366</v>
       </c>
@@ -30791,7 +30790,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1369" s="1">
         <v>1367</v>
       </c>
@@ -30805,7 +30804,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="1370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1370" s="1">
         <v>1368</v>
       </c>
@@ -30819,7 +30818,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1371" s="1">
         <v>1369</v>
       </c>
@@ -30833,7 +30832,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1372" s="1">
         <v>1370</v>
       </c>
@@ -30847,7 +30846,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1373" s="1">
         <v>1371</v>
       </c>
@@ -30861,7 +30860,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="1374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1374" s="1">
         <v>1372</v>
       </c>
@@ -30895,7 +30894,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1376" s="1">
         <v>1374</v>
       </c>
@@ -30929,7 +30928,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="1378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1378" s="1">
         <v>1376</v>
       </c>
@@ -30946,7 +30945,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1379" s="1">
         <v>1377</v>
       </c>
@@ -30963,7 +30962,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1380" s="1">
         <v>1378</v>
       </c>
@@ -30994,7 +30993,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1382" s="1">
         <v>1380</v>
       </c>
@@ -31034,7 +31033,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1384" s="1">
         <v>1382</v>
       </c>
@@ -31051,7 +31050,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="1385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1385" s="1">
         <v>1383</v>
       </c>
@@ -31065,7 +31064,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1386" s="1">
         <v>1384</v>
       </c>
@@ -31079,7 +31078,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1387" s="1">
         <v>1385</v>
       </c>
@@ -31110,7 +31109,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1389" s="1">
         <v>1387</v>
       </c>
@@ -31124,7 +31123,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="1390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1390" s="1">
         <v>1388</v>
       </c>
@@ -31138,7 +31137,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="1391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1391" s="1">
         <v>1389</v>
       </c>
@@ -31152,7 +31151,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1392" s="1">
         <v>1390</v>
       </c>
@@ -31166,7 +31165,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1393" s="1">
         <v>1391</v>
       </c>
@@ -31180,7 +31179,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="1394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1394" s="1">
         <v>1392</v>
       </c>
@@ -31211,7 +31210,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="1396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1396" s="1">
         <v>1394</v>
       </c>
@@ -31225,7 +31224,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="1397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1397" s="1">
         <v>1395</v>
       </c>
@@ -31239,7 +31238,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1398" s="1">
         <v>1396</v>
       </c>
@@ -31273,7 +31272,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="1400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1400" s="1">
         <v>1398</v>
       </c>
@@ -31287,7 +31286,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1401" s="1">
         <v>1399</v>
       </c>
@@ -31301,7 +31300,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1402" s="1">
         <v>1400</v>
       </c>
@@ -31315,7 +31314,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1403" s="1">
         <v>1401</v>
       </c>
@@ -31332,7 +31331,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="1404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1404" s="1">
         <v>1402</v>
       </c>
@@ -31346,7 +31345,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1405" s="1">
         <v>1403</v>
       </c>
@@ -31380,7 +31379,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1407" s="1">
         <v>1405</v>
       </c>
@@ -31397,7 +31396,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1408" s="1">
         <v>1406</v>
       </c>
@@ -31414,7 +31413,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1409" s="1">
         <v>1407</v>
       </c>
@@ -31428,7 +31427,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1410" s="1">
         <v>1408</v>
       </c>
@@ -31442,7 +31441,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1411" s="1">
         <v>1409</v>
       </c>
@@ -31456,7 +31455,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1412" s="1">
         <v>1410</v>
       </c>
@@ -31470,7 +31469,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="1413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1413" s="1">
         <v>1411</v>
       </c>
@@ -31487,7 +31486,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="1414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1414" s="1">
         <v>1412</v>
       </c>
@@ -31501,7 +31500,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1415" s="1">
         <v>1413</v>
       </c>
@@ -31515,7 +31514,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1416" s="1">
         <v>1414</v>
       </c>
@@ -31529,7 +31528,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1417" s="1">
         <v>1415</v>
       </c>
@@ -31543,7 +31542,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="1418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1418" s="1">
         <v>1416</v>
       </c>
@@ -31557,7 +31556,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1419" s="1">
         <v>1417</v>
       </c>
@@ -31574,7 +31573,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1420" s="1">
         <v>1418</v>
       </c>
@@ -31588,7 +31587,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1421" s="1">
         <v>1419</v>
       </c>
@@ -31645,7 +31644,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="1424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1424" s="1">
         <v>1422</v>
       </c>
@@ -31662,7 +31661,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1425" s="1">
         <v>1423</v>
       </c>
@@ -31696,7 +31695,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="1427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1427" s="1">
         <v>1425</v>
       </c>
@@ -31710,7 +31709,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1428" s="1">
         <v>1426</v>
       </c>
@@ -31724,7 +31723,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="1429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1429" s="1">
         <v>1427</v>
       </c>
@@ -31738,7 +31737,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="1430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1430" s="1">
         <v>1428</v>
       </c>
@@ -31752,7 +31751,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1431" s="1">
         <v>1429</v>
       </c>
@@ -31766,7 +31765,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1432" s="1">
         <v>1430</v>
       </c>
@@ -31817,7 +31816,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="1435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1435" s="1">
         <v>1433</v>
       </c>
@@ -31831,7 +31830,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1436" s="1">
         <v>1434</v>
       </c>
@@ -31845,7 +31844,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1437" s="1">
         <v>1435</v>
       </c>
@@ -31862,7 +31861,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1438" s="1">
         <v>1436</v>
       </c>
@@ -31950,7 +31949,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1443" s="1">
         <v>1441</v>
       </c>
@@ -31964,7 +31963,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1444" s="1">
         <v>1442</v>
       </c>
@@ -31981,7 +31980,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1445" s="1">
         <v>1443</v>
       </c>
@@ -32018,7 +32017,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="1447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1447" s="1">
         <v>1445</v>
       </c>
@@ -32032,7 +32031,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1448" s="1">
         <v>1446</v>
       </c>
@@ -32049,7 +32048,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1449" s="1">
         <v>1447</v>
       </c>
@@ -32063,7 +32062,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1450" s="1">
         <v>1448</v>
       </c>
@@ -32080,7 +32079,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1451" s="1">
         <v>1449</v>
       </c>
@@ -32114,7 +32113,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="1453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1453" s="1">
         <v>1451</v>
       </c>
@@ -32188,7 +32187,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="1457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1457" s="1">
         <v>1455</v>
       </c>
@@ -32202,7 +32201,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="1458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1458" s="1">
         <v>1456</v>
       </c>
@@ -32219,7 +32218,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="1459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1459" s="1">
         <v>1457</v>
       </c>
@@ -32233,7 +32232,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1460" s="1">
         <v>1458</v>
       </c>
@@ -32250,7 +32249,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1461" s="1">
         <v>1459</v>
       </c>
@@ -32358,7 +32357,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="1467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1467" s="1">
         <v>1465</v>
       </c>
@@ -32392,7 +32391,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="1469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1469" s="1">
         <v>1467</v>
       </c>
@@ -32406,7 +32405,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1470" s="1">
         <v>1468</v>
       </c>
@@ -32420,7 +32419,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1471" s="1">
         <v>1469</v>
       </c>
@@ -32434,7 +32433,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1472" s="1">
         <v>1470</v>
       </c>
@@ -32448,7 +32447,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1473" s="1">
         <v>1471</v>
       </c>
@@ -32482,7 +32481,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="1475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1475" s="1">
         <v>1473</v>
       </c>
@@ -32519,7 +32518,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1477" s="1">
         <v>1475</v>
       </c>
@@ -32533,7 +32532,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1478" s="1">
         <v>1476</v>
       </c>
@@ -32553,7 +32552,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1479" s="1">
         <v>1477</v>
       </c>
@@ -32567,7 +32566,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1480" s="1">
         <v>1478</v>
       </c>
@@ -32578,7 +32577,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1481" s="1">
         <v>1479</v>
       </c>
@@ -32586,7 +32585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1482" s="1">
         <v>1480</v>
       </c>
@@ -32597,7 +32596,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="1483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1483" s="1">
         <v>1481</v>
       </c>
@@ -32608,7 +32607,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1484" s="1">
         <v>1482</v>
       </c>
@@ -32619,7 +32618,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1485" s="1">
         <v>1483</v>
       </c>
@@ -32633,7 +32632,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="1486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1486" s="1">
         <v>1484</v>
       </c>
@@ -32647,7 +32646,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1487" s="1">
         <v>1485</v>
       </c>
@@ -32661,7 +32660,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="1488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1488" s="1">
         <v>1486</v>
       </c>
@@ -32681,7 +32680,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1489" s="1">
         <v>1487</v>
       </c>
@@ -32695,7 +32694,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="1490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1490" s="1">
         <v>1488</v>
       </c>
@@ -32709,7 +32708,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="1491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1491" s="1">
         <v>1489</v>
       </c>
@@ -32723,7 +32722,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1492" s="1">
         <v>1490</v>
       </c>
@@ -32737,7 +32736,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1493" s="1">
         <v>1491</v>
       </c>
@@ -32748,7 +32747,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="1494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1494" s="1">
         <v>1492</v>
       </c>
@@ -32759,7 +32758,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="1495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1495" s="1">
         <v>1493</v>
       </c>
@@ -32773,7 +32772,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1496" s="1">
         <v>1494</v>
       </c>
@@ -32787,7 +32786,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1497" s="1">
         <v>1495</v>
       </c>
@@ -32801,7 +32800,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1498" s="1">
         <v>1496</v>
       </c>
@@ -32812,7 +32811,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1499" s="1">
         <v>1497</v>
       </c>
@@ -32826,7 +32825,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="1500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1500" s="1">
         <v>1498</v>
       </c>
@@ -32837,7 +32836,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1501" s="1">
         <v>1499</v>
       </c>
@@ -32848,7 +32847,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1502" s="1">
         <v>1500</v>
       </c>
@@ -32879,7 +32878,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="1504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1504" s="1">
         <v>1502</v>
       </c>
@@ -32893,7 +32892,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1505" s="1">
         <v>1503</v>
       </c>
@@ -32998,7 +32997,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="1511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1511" s="1">
         <v>1509</v>
       </c>
@@ -33015,7 +33014,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="1512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1512" s="1">
         <v>1510</v>
       </c>
@@ -33029,7 +33028,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1513" s="1">
         <v>1511</v>
       </c>
@@ -33180,7 +33179,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1521" s="1">
         <v>1519</v>
       </c>
@@ -33194,7 +33193,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1522" s="1">
         <v>1520</v>
       </c>
@@ -33373,7 +33372,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1532" s="1">
         <v>1530</v>
       </c>
@@ -33558,7 +33557,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1542" s="1">
         <v>1540</v>
       </c>
@@ -33632,7 +33631,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="1546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1546" s="1">
         <v>1544</v>
       </c>
@@ -34322,7 +34321,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="1582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1582" s="1">
         <v>1580</v>
       </c>
@@ -35183,7 +35182,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1627" s="1">
         <v>1625</v>
       </c>
@@ -35402,7 +35401,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="1639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1639" s="1">
         <v>1637</v>
       </c>
@@ -35433,7 +35432,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1641" s="1">
         <v>1639</v>
       </c>
@@ -35447,7 +35446,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1642" s="1">
         <v>1640</v>
       </c>
@@ -35535,7 +35534,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="1647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1647" s="1">
         <v>1645</v>
       </c>
@@ -35549,7 +35548,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1648" s="1">
         <v>1646</v>
       </c>
@@ -35563,7 +35562,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1649" s="1">
         <v>1647</v>
       </c>
@@ -35594,7 +35593,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1651" s="1">
         <v>1649</v>
       </c>
@@ -36013,7 +36012,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1673" s="1">
         <v>1671</v>
       </c>
@@ -36027,7 +36026,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1674" s="1">
         <v>1672</v>
       </c>
@@ -36084,7 +36083,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1677" s="1">
         <v>1675</v>
       </c>
@@ -36434,7 +36433,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="1696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1696" s="1">
         <v>1694</v>
       </c>
@@ -36705,7 +36704,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="1710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1710" s="1">
         <v>1708</v>
       </c>
@@ -36719,7 +36718,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="1711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1711" s="1">
         <v>1709</v>
       </c>
@@ -36770,7 +36769,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1714" s="1">
         <v>1712</v>
       </c>
@@ -36784,7 +36783,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="1715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1715" s="1">
         <v>1713</v>
       </c>
@@ -36872,7 +36871,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1720" s="1">
         <v>1718</v>
       </c>
@@ -36974,7 +36973,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="1726" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1726" s="1">
         <v>1724</v>
       </c>
@@ -37014,7 +37013,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="1728" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1728" s="1">
         <v>1726</v>
       </c>
@@ -37068,7 +37067,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1731" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1731" s="1">
         <v>1729</v>
       </c>
@@ -37359,7 +37358,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1746" s="1">
         <v>1744</v>
       </c>
@@ -37490,7 +37489,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="1753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1753" s="1">
         <v>1751</v>
       </c>
@@ -37857,7 +37856,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="1773" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1773" s="1">
         <v>1771</v>
       </c>
@@ -37871,7 +37870,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1774" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1774" s="1">
         <v>1772</v>
       </c>
@@ -37885,7 +37884,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="1775" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1775" s="1">
         <v>1773</v>
       </c>
@@ -37899,7 +37898,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1776" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1776" s="1">
         <v>1774</v>
       </c>
@@ -37913,7 +37912,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="1777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1777" s="1">
         <v>1775</v>
       </c>
@@ -37927,7 +37926,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1778" s="1">
         <v>1776</v>
       </c>
@@ -37941,7 +37940,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1779" s="1">
         <v>1777</v>
       </c>
@@ -37952,7 +37951,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1780" s="1">
         <v>1778</v>
       </c>
@@ -37966,7 +37965,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1781" s="1">
         <v>1779</v>
       </c>
@@ -37980,7 +37979,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1782" s="1">
         <v>1780</v>
       </c>
@@ -37994,7 +37993,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1783" s="1">
         <v>1781</v>
       </c>
@@ -38008,7 +38007,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1784" s="1">
         <v>1782</v>
       </c>
@@ -38025,7 +38024,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1785" s="1">
         <v>1783</v>
       </c>
@@ -38042,7 +38041,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1786" s="1">
         <v>1784</v>
       </c>
@@ -38059,7 +38058,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1787" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1787" s="1">
         <v>1785</v>
       </c>
@@ -38073,7 +38072,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1788" s="1">
         <v>1786</v>
       </c>
@@ -38087,7 +38086,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="1789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1789" s="1">
         <v>1787</v>
       </c>
@@ -38098,7 +38097,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="1790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1790" s="1">
         <v>1788</v>
       </c>
@@ -38112,7 +38111,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1791" s="1">
         <v>1789</v>
       </c>
@@ -38126,7 +38125,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1792" s="1">
         <v>1790</v>
       </c>
@@ -38137,7 +38136,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1793" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1793" s="1">
         <v>1791</v>
       </c>
@@ -38154,7 +38153,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1794" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1794" s="1">
         <v>1792</v>
       </c>
@@ -38168,7 +38167,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1795" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1795" s="1">
         <v>1793</v>
       </c>
@@ -38182,7 +38181,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1796" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1796" s="1">
         <v>1794</v>
       </c>
@@ -38196,7 +38195,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1797" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1797" s="1">
         <v>1795</v>
       </c>
@@ -38210,7 +38209,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="1798" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1798" s="1">
         <v>1796</v>
       </c>
@@ -38224,7 +38223,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1799" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1799" s="1">
         <v>1797</v>
       </c>
@@ -38486,7 +38485,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="1813" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1813" s="1">
         <v>1811</v>
       </c>
@@ -38500,7 +38499,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1814" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1814" s="1">
         <v>1812</v>
       </c>
@@ -38514,7 +38513,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1815" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1815" s="1">
         <v>1813</v>
       </c>
@@ -38528,7 +38527,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1816" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1816" s="1">
         <v>1814</v>
       </c>
@@ -38539,7 +38538,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="1817" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1817" s="1">
         <v>1815</v>
       </c>
@@ -39264,7 +39263,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1857" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1857" s="1">
         <v>1855</v>
       </c>
@@ -39272,7 +39271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1858" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1858" s="1">
         <v>1856</v>
       </c>
@@ -39283,7 +39282,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1859" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1859" s="1">
         <v>1857</v>
       </c>
@@ -39311,7 +39310,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="1861" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1861" s="1">
         <v>1859</v>
       </c>
@@ -39336,7 +39335,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="1863" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1863" s="1">
         <v>1861</v>
       </c>
@@ -39350,7 +39349,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="1864" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1864" s="1">
         <v>1862</v>
       </c>
@@ -39364,7 +39363,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="1865" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1865" s="1">
         <v>1863</v>
       </c>
@@ -39372,7 +39371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1866" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1866" s="1">
         <v>1864</v>
       </c>
@@ -39383,7 +39382,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="1867" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1867" s="1">
         <v>1865</v>
       </c>
@@ -39394,7 +39393,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="1868" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1868" s="1">
         <v>1866</v>
       </c>
@@ -39402,7 +39401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1869" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1869" s="1">
         <v>1867</v>
       </c>
@@ -39413,7 +39412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1870" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1870" s="1">
         <v>1868</v>
       </c>
@@ -39424,7 +39423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1871" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1871" s="1">
         <v>1869</v>
       </c>
@@ -39435,7 +39434,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1872" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1872" s="1">
         <v>1870</v>
       </c>
@@ -39443,7 +39442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1873" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1873" s="1">
         <v>1871</v>
       </c>
@@ -39457,7 +39456,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="1874" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1874" s="1">
         <v>1872</v>
       </c>
@@ -39471,7 +39470,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1875" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1875" s="1">
         <v>1873</v>
       </c>
@@ -39479,7 +39478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1876" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1876" s="1">
         <v>1874</v>
       </c>
@@ -39496,7 +39495,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1877" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1877" s="1">
         <v>1875</v>
       </c>
@@ -39510,7 +39509,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="1878" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1878" s="1">
         <v>1876</v>
       </c>
@@ -39524,7 +39523,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1879" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1879" s="1">
         <v>1877</v>
       </c>
@@ -39535,7 +39534,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="1880" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1880" s="1">
         <v>1878</v>
       </c>
@@ -39552,7 +39551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1881" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1881" s="1">
         <v>1879</v>
       </c>
@@ -39569,7 +39568,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1882" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1882" s="1">
         <v>1880</v>
       </c>
@@ -39577,7 +39576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1883" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1883" s="1">
         <v>1881</v>
       </c>
@@ -39591,7 +39590,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1884" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1884" s="1">
         <v>1882</v>
       </c>
@@ -39608,7 +39607,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1885" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1885" s="1">
         <v>1883</v>
       </c>
@@ -39622,7 +39621,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1886" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1886" s="1">
         <v>1884</v>
       </c>
@@ -39636,7 +39635,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1887" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1887" s="1">
         <v>1885</v>
       </c>
@@ -39650,7 +39649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1888" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1888" s="1">
         <v>1886</v>
       </c>
@@ -39664,7 +39663,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1889" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1889" s="1">
         <v>1887</v>
       </c>
@@ -39678,7 +39677,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1890" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1890" s="1">
         <v>1888</v>
       </c>
@@ -39689,7 +39688,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="1891" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1891" s="1">
         <v>1889</v>
       </c>
@@ -39703,7 +39702,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1892" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1892" s="1">
         <v>1890</v>
       </c>
@@ -39717,7 +39716,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1893" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1893" s="1">
         <v>1891</v>
       </c>
@@ -39728,7 +39727,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="1894" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1894" s="1">
         <v>1892</v>
       </c>
@@ -39745,7 +39744,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1895" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1895" s="1">
         <v>1893</v>
       </c>
@@ -39759,7 +39758,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1896" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1896" s="1">
         <v>1894</v>
       </c>
@@ -39779,7 +39778,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1897" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1897" s="1">
         <v>1895</v>
       </c>
@@ -39796,7 +39795,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1898" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1898" s="1">
         <v>1896</v>
       </c>
@@ -39807,7 +39806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1899" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1899" s="1">
         <v>1897</v>
       </c>
@@ -39821,7 +39820,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1900" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1900" s="1">
         <v>1898</v>
       </c>
@@ -39838,7 +39837,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1901" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1901" s="1">
         <v>1899</v>
       </c>
@@ -39846,7 +39845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1902" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1902" s="1">
         <v>1900</v>
       </c>
@@ -39857,7 +39856,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="1903" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1903" s="1">
         <v>1901</v>
       </c>
@@ -39871,7 +39870,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1904" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1904" s="1">
         <v>1902</v>
       </c>
@@ -39885,7 +39884,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1905" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1905" s="1">
         <v>1903</v>
       </c>
@@ -39896,7 +39895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1906" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1906" s="1">
         <v>1904</v>
       </c>
@@ -39907,7 +39906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1907" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1907" s="1">
         <v>1905</v>
       </c>
@@ -39918,7 +39917,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="1908" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1908" s="1">
         <v>1906</v>
       </c>
@@ -39932,7 +39931,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1909" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1909" s="1">
         <v>1907</v>
       </c>
@@ -39949,7 +39948,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1910" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1910" s="1">
         <v>1908</v>
       </c>
@@ -39963,7 +39962,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1911" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1911" s="1">
         <v>1909</v>
       </c>
@@ -39977,7 +39976,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="1912" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1912" s="1">
         <v>1910</v>
       </c>
@@ -39991,7 +39990,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1913" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1913" s="1">
         <v>1911</v>
       </c>
@@ -39999,7 +39998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1914" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1914" s="1">
         <v>1912</v>
       </c>
@@ -40007,7 +40006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1915" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1915" s="1">
         <v>1913</v>
       </c>
@@ -40024,7 +40023,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1916" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1916" s="1">
         <v>1914</v>
       </c>
@@ -40038,7 +40037,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1917" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1917" s="1">
         <v>1915</v>
       </c>
@@ -40049,7 +40048,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="1918" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1918" s="1">
         <v>1916</v>
       </c>
@@ -40063,7 +40062,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1919" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1919" s="1">
         <v>1917</v>
       </c>
@@ -40077,7 +40076,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1920" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1920" s="1">
         <v>1918</v>
       </c>
@@ -40088,7 +40087,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="1921" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1921" s="1">
         <v>1919</v>
       </c>
@@ -40096,7 +40095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="1922" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1922" s="1">
         <v>1920</v>
       </c>
@@ -40110,7 +40109,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1923" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1923" s="1">
         <v>1921</v>
       </c>
@@ -40118,7 +40117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1924" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1924" s="1">
         <v>1922</v>
       </c>
@@ -40129,7 +40128,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1925" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1925" s="1">
         <v>1923</v>
       </c>
@@ -40143,7 +40142,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1926" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1926" s="1">
         <v>1924</v>
       </c>
@@ -40157,7 +40156,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1927" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1927" s="1">
         <v>1925</v>
       </c>
@@ -40168,7 +40167,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="1928" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1928" s="1">
         <v>1926</v>
       </c>
@@ -40182,7 +40181,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1929" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1929" s="1">
         <v>1927</v>
       </c>
@@ -40193,7 +40192,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="1930" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1930" s="1">
         <v>1928</v>
       </c>
@@ -40207,7 +40206,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1931" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1931" s="1">
         <v>1929</v>
       </c>
@@ -40221,7 +40220,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="1932" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1932" s="1">
         <v>1930</v>
       </c>
@@ -40235,7 +40234,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1933" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1933" s="1">
         <v>1931</v>
       </c>
@@ -40243,7 +40242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1934" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1934" s="1">
         <v>1932</v>
       </c>
@@ -40260,7 +40259,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="1935" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1935" s="1">
         <v>1933</v>
       </c>
@@ -40274,7 +40273,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1936" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1936" s="1">
         <v>1934</v>
       </c>
@@ -40288,7 +40287,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1937" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1937" s="1">
         <v>1935</v>
       </c>
@@ -40299,7 +40298,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1938" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1938" s="1">
         <v>1936</v>
       </c>
@@ -40310,7 +40309,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="1939" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1939" s="1">
         <v>1937</v>
       </c>
@@ -40321,7 +40320,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="1940" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1940" s="1">
         <v>1938</v>
       </c>
@@ -40335,7 +40334,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1941" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1941" s="1">
         <v>1939</v>
       </c>
@@ -40349,7 +40348,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1942" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1942" s="1">
         <v>1940</v>
       </c>
@@ -40357,7 +40356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1943" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1943" s="1">
         <v>1941</v>
       </c>
@@ -40371,7 +40370,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1944" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1944" s="1">
         <v>1942</v>
       </c>
@@ -40382,7 +40381,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="1945" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1945" s="1">
         <v>1943</v>
       </c>
@@ -40396,7 +40395,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1946" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1946" s="1">
         <v>1944</v>
       </c>
@@ -40407,7 +40406,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="1947" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1947" s="1">
         <v>1945</v>
       </c>
@@ -40421,7 +40420,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1948" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1948" s="1">
         <v>1946</v>
       </c>
@@ -40438,7 +40437,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="1949" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1949" s="1">
         <v>1947</v>
       </c>
@@ -40452,7 +40451,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1950" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1950" s="1">
         <v>1948</v>
       </c>
@@ -40466,7 +40465,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1951" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1951" s="1">
         <v>1949</v>
       </c>
@@ -40477,7 +40476,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="1952" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1952" s="1">
         <v>1950</v>
       </c>
@@ -40485,7 +40484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1953" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1953" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1953" s="1">
         <v>1951</v>
       </c>
@@ -40502,7 +40501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1954" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1954" s="1">
         <v>1952</v>
       </c>
@@ -40516,7 +40515,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1955" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1955" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1955" s="1">
         <v>1953</v>
       </c>
@@ -40524,7 +40523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1956" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1956" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1956" s="1">
         <v>1954</v>
       </c>
@@ -40532,7 +40531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1957" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1957" s="1">
         <v>1955</v>
       </c>
@@ -40543,7 +40542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1958" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1958" s="1">
         <v>1956</v>
       </c>
@@ -40557,7 +40556,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1959" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1959" s="1">
         <v>1957</v>
       </c>
@@ -40574,7 +40573,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1960" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1960" s="1">
         <v>1958</v>
       </c>
@@ -40594,7 +40593,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1961" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1961" s="1">
         <v>1959</v>
       </c>
@@ -40608,7 +40607,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1962" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1962" s="1">
         <v>1960</v>
       </c>
@@ -40622,7 +40621,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1963" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1963" s="1">
         <v>1961</v>
       </c>
@@ -40639,7 +40638,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1964" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1964" s="1">
         <v>1962</v>
       </c>
@@ -40653,7 +40652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1965" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1965" s="1">
         <v>1963</v>
       </c>
@@ -40670,7 +40669,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1966" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1966" s="1">
         <v>1964</v>
       </c>
@@ -40684,7 +40683,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="1967" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1967" s="1">
         <v>1965</v>
       </c>
@@ -40698,7 +40697,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1968" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1968" s="1">
         <v>1966</v>
       </c>
@@ -40712,7 +40711,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1969" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1969" s="1">
         <v>1967</v>
       </c>
@@ -40729,7 +40728,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1970" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1970" s="1">
         <v>1968</v>
       </c>
@@ -40740,7 +40739,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="1971" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1971" s="1">
         <v>1969</v>
       </c>
@@ -40751,7 +40750,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1972" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1972" s="1">
         <v>1970</v>
       </c>
@@ -40765,7 +40764,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1973" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1973" s="1">
         <v>1971</v>
       </c>
@@ -40776,7 +40775,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="1974" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1974" s="1">
         <v>1972</v>
       </c>
@@ -40790,7 +40789,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1975" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1975" s="1">
         <v>1973</v>
       </c>
@@ -40804,7 +40803,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1976" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1976" s="1">
         <v>1974</v>
       </c>
@@ -40815,7 +40814,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="1977" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1977" s="1">
         <v>1975</v>
       </c>
@@ -40829,7 +40828,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1978" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1978" s="1">
         <v>1976</v>
       </c>
@@ -40843,7 +40842,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="1979" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1979" s="1">
         <v>1977</v>
       </c>
@@ -40897,7 +40896,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="1982" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1982" s="1">
         <v>1980</v>
       </c>
@@ -40915,13 +40914,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1982">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I1982"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
